--- a/xlsx/亚里士多德_intext.xlsx
+++ b/xlsx/亚里士多德_intext.xlsx
@@ -29,7 +29,7 @@
     <t>馬其頓王國</t>
   </si>
   <si>
-    <t>政策_政策_政治_亚里士多德</t>
+    <t>体育运动_体育运动_古希腊_亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -14737,7 +14737,7 @@
         <v>490</v>
       </c>
       <c r="G253" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -22103,7 +22103,7 @@
         <v>984</v>
       </c>
       <c r="G507" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -24249,7 +24249,7 @@
         <v>1124</v>
       </c>
       <c r="G581" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
